--- a/结果/张晴.xlsx
+++ b/结果/张晴.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>姓名</t>
   </si>
@@ -243,102 +243,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3896.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>175.32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
